--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/fuels/peiir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5BDB8-164C-4260-8BDD-310BFE54C72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7491852-4BD0-B74F-A16D-CA91B089C5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="1410" windowWidth="33360" windowHeight="21225" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,6 +354,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,37 +700,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,97 +741,97 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -847,20 +851,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
@@ -895,7 +899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -930,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1330,21 +1334,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1814,21 +1818,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2298,21 +2302,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2782,21 +2786,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3266,21 +3270,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3750,21 +3754,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4234,25 +4238,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4956,20 +4960,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/fuels/peiir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/peiir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7491852-4BD0-B74F-A16D-CA91B089C5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A88BD-4717-5748-9AE3-81F0AF639224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
